--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna1-Epha1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna1-Epha1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.33198466666667</v>
+        <v>21.23829066666667</v>
       </c>
       <c r="H2">
-        <v>54.995954</v>
+        <v>63.714872</v>
       </c>
       <c r="I2">
-        <v>0.8831875137004506</v>
+        <v>0.9042366413687101</v>
       </c>
       <c r="J2">
-        <v>0.8831875137004505</v>
+        <v>0.90423664136871</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.446352</v>
+        <v>3.086228</v>
       </c>
       <c r="N2">
-        <v>4.339055999999999</v>
+        <v>9.258683999999999</v>
       </c>
       <c r="O2">
-        <v>0.05318694539780245</v>
+        <v>0.1108770174431943</v>
       </c>
       <c r="P2">
-        <v>0.05318694539780244</v>
+        <v>0.1108770174431943</v>
       </c>
       <c r="Q2">
-        <v>26.51450268660266</v>
+        <v>65.54620732760533</v>
       </c>
       <c r="R2">
-        <v>238.630524179424</v>
+        <v>589.915865948448</v>
       </c>
       <c r="S2">
-        <v>0.04697404606720677</v>
+        <v>0.1002590618578139</v>
       </c>
       <c r="T2">
-        <v>0.04697404606720675</v>
+        <v>0.1002590618578139</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.33198466666667</v>
+        <v>21.23829066666667</v>
       </c>
       <c r="H3">
-        <v>54.995954</v>
+        <v>63.714872</v>
       </c>
       <c r="I3">
-        <v>0.8831875137004506</v>
+        <v>0.9042366413687101</v>
       </c>
       <c r="J3">
-        <v>0.8831875137004505</v>
+        <v>0.90423664136871</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.619945333333333</v>
+        <v>5.619945333333334</v>
       </c>
       <c r="N3">
         <v>16.859836</v>
       </c>
       <c r="O3">
-        <v>0.2066631951161506</v>
+        <v>0.2019043235800461</v>
       </c>
       <c r="P3">
-        <v>0.2066631951161506</v>
+        <v>0.2019043235800461</v>
       </c>
       <c r="Q3">
-        <v>103.0247516781716</v>
+        <v>119.3580325201102</v>
       </c>
       <c r="R3">
-        <v>927.2227651035438</v>
+        <v>1074.222292680992</v>
       </c>
       <c r="S3">
-        <v>0.1825223534680242</v>
+        <v>0.1825692874318422</v>
       </c>
       <c r="T3">
-        <v>0.1825223534680241</v>
+        <v>0.1825692874318422</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.33198466666667</v>
+        <v>21.23829066666667</v>
       </c>
       <c r="H4">
-        <v>54.995954</v>
+        <v>63.714872</v>
       </c>
       <c r="I4">
-        <v>0.8831875137004506</v>
+        <v>0.9042366413687101</v>
       </c>
       <c r="J4">
-        <v>0.8831875137004505</v>
+        <v>0.90423664136871</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.371955333333334</v>
+        <v>3.355234666666667</v>
       </c>
       <c r="N4">
-        <v>7.115866</v>
+        <v>10.065704</v>
       </c>
       <c r="O4">
-        <v>0.08722431247720219</v>
+        <v>0.1205414547019891</v>
       </c>
       <c r="P4">
-        <v>0.08722431247720218</v>
+        <v>0.1205414547019891</v>
       </c>
       <c r="Q4">
-        <v>43.48264880068489</v>
+        <v>71.25944910554311</v>
       </c>
       <c r="R4">
-        <v>391.343839206164</v>
+        <v>641.335041949888</v>
       </c>
       <c r="S4">
-        <v>0.0770354236709714</v>
+        <v>0.1089980001454251</v>
       </c>
       <c r="T4">
-        <v>0.07703542367097137</v>
+        <v>0.1089980001454251</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.33198466666667</v>
+        <v>21.23829066666667</v>
       </c>
       <c r="H5">
-        <v>54.995954</v>
+        <v>63.714872</v>
       </c>
       <c r="I5">
-        <v>0.8831875137004506</v>
+        <v>0.9042366413687101</v>
       </c>
       <c r="J5">
-        <v>0.8831875137004505</v>
+        <v>0.90423664136871</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.583231666666667</v>
+        <v>1.012758666666667</v>
       </c>
       <c r="N5">
-        <v>7.749695</v>
+        <v>3.038276</v>
       </c>
       <c r="O5">
-        <v>0.09499361262325785</v>
+        <v>0.03638475846559173</v>
       </c>
       <c r="P5">
-        <v>0.09499361262325784</v>
+        <v>0.03638475846559173</v>
       </c>
       <c r="Q5">
-        <v>47.35576330378112</v>
+        <v>21.50926293785244</v>
       </c>
       <c r="R5">
-        <v>426.20186973403</v>
+        <v>193.583366440672</v>
       </c>
       <c r="S5">
-        <v>0.08389717255015884</v>
+        <v>0.0329004317919384</v>
       </c>
       <c r="T5">
-        <v>0.08389717255015881</v>
+        <v>0.0329004317919384</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.33198466666667</v>
+        <v>21.23829066666667</v>
       </c>
       <c r="H6">
-        <v>54.995954</v>
+        <v>63.714872</v>
       </c>
       <c r="I6">
-        <v>0.8831875137004506</v>
+        <v>0.9042366413687101</v>
       </c>
       <c r="J6">
-        <v>0.8831875137004505</v>
+        <v>0.90423664136871</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.866195333333332</v>
+        <v>12.86621566666667</v>
       </c>
       <c r="N6">
-        <v>29.598586</v>
+        <v>38.598647</v>
       </c>
       <c r="O6">
-        <v>0.3628112606599592</v>
+        <v>0.4622366263610143</v>
       </c>
       <c r="P6">
-        <v>0.3628112606599592</v>
+        <v>0.4622366263610142</v>
       </c>
       <c r="Q6">
-        <v>180.8669415690049</v>
+        <v>273.2564281086871</v>
       </c>
       <c r="R6">
-        <v>1627.802474121044</v>
+        <v>2459.307852978184</v>
       </c>
       <c r="S6">
-        <v>0.3204303752447955</v>
+        <v>0.4179712945382869</v>
       </c>
       <c r="T6">
-        <v>0.3204303752447955</v>
+        <v>0.4179712945382868</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.33198466666667</v>
+        <v>21.23829066666667</v>
       </c>
       <c r="H7">
-        <v>54.995954</v>
+        <v>63.714872</v>
       </c>
       <c r="I7">
-        <v>0.8831875137004506</v>
+        <v>0.9042366413687101</v>
       </c>
       <c r="J7">
-        <v>0.8831875137004505</v>
+        <v>0.90423664136871</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.306061</v>
+        <v>1.894313</v>
       </c>
       <c r="N7">
-        <v>15.918183</v>
+        <v>5.682938999999999</v>
       </c>
       <c r="O7">
-        <v>0.1951206737256277</v>
+        <v>0.06805581944816448</v>
       </c>
       <c r="P7">
-        <v>0.1951206737256277</v>
+        <v>0.06805581944816448</v>
       </c>
       <c r="Q7">
-        <v>97.27062889239799</v>
+        <v>40.23197010764533</v>
       </c>
       <c r="R7">
-        <v>875.435660031582</v>
+        <v>362.0877309688079</v>
       </c>
       <c r="S7">
-        <v>0.172328142699294</v>
+        <v>0.06153856560340359</v>
       </c>
       <c r="T7">
-        <v>0.1723281426992939</v>
+        <v>0.06153856560340358</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>4.183953000000001</v>
       </c>
       <c r="I8">
-        <v>0.06719067092662021</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="J8">
-        <v>0.06719067092662019</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.446352</v>
+        <v>3.086228</v>
       </c>
       <c r="N8">
-        <v>4.339055999999999</v>
+        <v>9.258683999999999</v>
       </c>
       <c r="O8">
-        <v>0.05318694539780245</v>
+        <v>0.1108770174431943</v>
       </c>
       <c r="P8">
-        <v>0.05318694539780244</v>
+        <v>0.1108770174431943</v>
       </c>
       <c r="Q8">
-        <v>2.017156263152</v>
+        <v>4.304210966428</v>
       </c>
       <c r="R8">
-        <v>18.154406368368</v>
+        <v>38.737898697852</v>
       </c>
       <c r="S8">
-        <v>0.003573666545815861</v>
+        <v>0.006583693719688964</v>
       </c>
       <c r="T8">
-        <v>0.00357366654581586</v>
+        <v>0.006583693719688963</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>4.183953000000001</v>
       </c>
       <c r="I9">
-        <v>0.06719067092662021</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="J9">
-        <v>0.06719067092662019</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.619945333333333</v>
+        <v>5.619945333333334</v>
       </c>
       <c r="N9">
         <v>16.859836</v>
       </c>
       <c r="O9">
-        <v>0.2066631951161506</v>
+        <v>0.2019043235800461</v>
       </c>
       <c r="P9">
-        <v>0.2066631951161506</v>
+        <v>0.2019043235800461</v>
       </c>
       <c r="Q9">
-        <v>7.837862379078667</v>
+        <v>7.837862379078669</v>
       </c>
       <c r="R9">
-        <v>70.540761411708</v>
+        <v>70.54076141170802</v>
       </c>
       <c r="S9">
-        <v>0.01388583873569318</v>
+        <v>0.01198874444663906</v>
       </c>
       <c r="T9">
-        <v>0.01388583873569318</v>
+        <v>0.01198874444663906</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>4.183953000000001</v>
       </c>
       <c r="I10">
-        <v>0.06719067092662021</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="J10">
-        <v>0.06719067092662019</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.371955333333334</v>
+        <v>3.355234666666667</v>
       </c>
       <c r="N10">
-        <v>7.115866</v>
+        <v>10.065704</v>
       </c>
       <c r="O10">
-        <v>0.08722431247720219</v>
+        <v>0.1205414547019891</v>
       </c>
       <c r="P10">
-        <v>0.08722431247720218</v>
+        <v>0.1205414547019891</v>
       </c>
       <c r="Q10">
-        <v>3.308049877588668</v>
+        <v>4.679381383101334</v>
       </c>
       <c r="R10">
-        <v>29.77244889829801</v>
+        <v>42.11443244791201</v>
       </c>
       <c r="S10">
-        <v>0.005860660076456386</v>
+        <v>0.007157552002968033</v>
       </c>
       <c r="T10">
-        <v>0.005860660076456383</v>
+        <v>0.007157552002968033</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>4.183953000000001</v>
       </c>
       <c r="I11">
-        <v>0.06719067092662021</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="J11">
-        <v>0.06719067092662019</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.583231666666667</v>
+        <v>1.012758666666667</v>
       </c>
       <c r="N11">
-        <v>7.749695</v>
+        <v>3.038276</v>
       </c>
       <c r="O11">
-        <v>0.09499361262325785</v>
+        <v>0.03638475846559173</v>
       </c>
       <c r="P11">
-        <v>0.09499361262325784</v>
+        <v>0.03638475846559173</v>
       </c>
       <c r="Q11">
-        <v>3.602706627148334</v>
+        <v>1.412444887225333</v>
       </c>
       <c r="R11">
-        <v>32.42435964433501</v>
+        <v>12.712003985028</v>
       </c>
       <c r="S11">
-        <v>0.006382684565900154</v>
+        <v>0.002160466716423382</v>
       </c>
       <c r="T11">
-        <v>0.006382684565900151</v>
+        <v>0.002160466716423382</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>4.183953000000001</v>
       </c>
       <c r="I12">
-        <v>0.06719067092662021</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="J12">
-        <v>0.06719067092662019</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.866195333333332</v>
+        <v>12.86621566666667</v>
       </c>
       <c r="N12">
-        <v>29.598586</v>
+        <v>38.598647</v>
       </c>
       <c r="O12">
-        <v>0.3628112606599592</v>
+        <v>0.4622366263610143</v>
       </c>
       <c r="P12">
-        <v>0.3628112606599592</v>
+        <v>0.4622366263610142</v>
       </c>
       <c r="Q12">
-        <v>13.75989918782867</v>
+        <v>17.94388054573234</v>
       </c>
       <c r="R12">
-        <v>123.839092690458</v>
+        <v>161.494924911591</v>
       </c>
       <c r="S12">
-        <v>0.02437753202347555</v>
+        <v>0.02744684556059925</v>
       </c>
       <c r="T12">
-        <v>0.02437753202347554</v>
+        <v>0.02744684556059924</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>4.183953000000001</v>
       </c>
       <c r="I13">
-        <v>0.06719067092662021</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="J13">
-        <v>0.06719067092662019</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.306061</v>
+        <v>1.894313</v>
       </c>
       <c r="N13">
-        <v>15.918183</v>
+        <v>5.682938999999999</v>
       </c>
       <c r="O13">
-        <v>0.1951206737256277</v>
+        <v>0.06805581944816448</v>
       </c>
       <c r="P13">
-        <v>0.1951206737256277</v>
+        <v>0.06805581944816448</v>
       </c>
       <c r="Q13">
-        <v>7.400103279711002</v>
+        <v>2.641905519763</v>
       </c>
       <c r="R13">
-        <v>66.60092951739901</v>
+        <v>23.777149677867</v>
       </c>
       <c r="S13">
-        <v>0.01311028897927908</v>
+        <v>0.004041041880646912</v>
       </c>
       <c r="T13">
-        <v>0.01311028897927908</v>
+        <v>0.004041041880646912</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.9925623333333333</v>
+        <v>0.6246503333333333</v>
       </c>
       <c r="H14">
-        <v>2.977687</v>
+        <v>1.873951</v>
       </c>
       <c r="I14">
-        <v>0.0478190809838148</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="J14">
-        <v>0.04781908098381479</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.446352</v>
+        <v>3.086228</v>
       </c>
       <c r="N14">
-        <v>4.339055999999999</v>
+        <v>9.258683999999999</v>
       </c>
       <c r="O14">
-        <v>0.05318694539780245</v>
+        <v>0.1108770174431943</v>
       </c>
       <c r="P14">
-        <v>0.05318694539780244</v>
+        <v>0.1108770174431943</v>
       </c>
       <c r="Q14">
-        <v>1.435594515941333</v>
+        <v>1.927813348942667</v>
       </c>
       <c r="R14">
-        <v>12.920350643472</v>
+        <v>17.350320140484</v>
       </c>
       <c r="S14">
-        <v>0.002543350849259251</v>
+        <v>0.002948771037749432</v>
       </c>
       <c r="T14">
-        <v>0.00254335084925925</v>
+        <v>0.002948771037749432</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9925623333333333</v>
+        <v>0.6246503333333333</v>
       </c>
       <c r="H15">
-        <v>2.977687</v>
+        <v>1.873951</v>
       </c>
       <c r="I15">
-        <v>0.0478190809838148</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="J15">
-        <v>0.04781908098381479</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.619945333333333</v>
+        <v>5.619945333333334</v>
       </c>
       <c r="N15">
         <v>16.859836</v>
       </c>
       <c r="O15">
-        <v>0.2066631951161506</v>
+        <v>0.2019043235800461</v>
       </c>
       <c r="P15">
-        <v>0.2066631951161506</v>
+        <v>0.2019043235800461</v>
       </c>
       <c r="Q15">
-        <v>5.57814605325911</v>
+        <v>3.510500725781778</v>
       </c>
       <c r="R15">
-        <v>50.20331447933199</v>
+        <v>31.594506532036</v>
       </c>
       <c r="S15">
-        <v>0.009882444063633127</v>
+        <v>0.005369639583552613</v>
       </c>
       <c r="T15">
-        <v>0.009882444063633124</v>
+        <v>0.005369639583552613</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.9925623333333333</v>
+        <v>0.6246503333333333</v>
       </c>
       <c r="H16">
-        <v>2.977687</v>
+        <v>1.873951</v>
       </c>
       <c r="I16">
-        <v>0.0478190809838148</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="J16">
-        <v>0.04781908098381479</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.371955333333334</v>
+        <v>3.355234666666667</v>
       </c>
       <c r="N16">
-        <v>7.115866</v>
+        <v>10.065704</v>
       </c>
       <c r="O16">
-        <v>0.08722431247720219</v>
+        <v>0.1205414547019891</v>
       </c>
       <c r="P16">
-        <v>0.08722431247720218</v>
+        <v>0.1205414547019891</v>
       </c>
       <c r="Q16">
-        <v>2.354313520215778</v>
+        <v>2.095848452944889</v>
       </c>
       <c r="R16">
-        <v>21.188821681942</v>
+        <v>18.862636076504</v>
       </c>
       <c r="S16">
-        <v>0.004170986462104899</v>
+        <v>0.003205796464136653</v>
       </c>
       <c r="T16">
-        <v>0.004170986462104898</v>
+        <v>0.003205796464136653</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9925623333333333</v>
+        <v>0.6246503333333333</v>
       </c>
       <c r="H17">
-        <v>2.977687</v>
+        <v>1.873951</v>
       </c>
       <c r="I17">
-        <v>0.0478190809838148</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="J17">
-        <v>0.04781908098381479</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.583231666666667</v>
+        <v>1.012758666666667</v>
       </c>
       <c r="N17">
-        <v>7.749695</v>
+        <v>3.038276</v>
       </c>
       <c r="O17">
-        <v>0.09499361262325785</v>
+        <v>0.03638475846559173</v>
       </c>
       <c r="P17">
-        <v>0.09499361262325784</v>
+        <v>0.03638475846559173</v>
       </c>
       <c r="Q17">
-        <v>2.564018450607223</v>
+        <v>0.6326200387195555</v>
       </c>
       <c r="R17">
-        <v>23.076166055465</v>
+        <v>5.693580348475999</v>
       </c>
       <c r="S17">
-        <v>0.004542507254976699</v>
+        <v>0.0009676515877946793</v>
       </c>
       <c r="T17">
-        <v>0.004542507254976698</v>
+        <v>0.0009676515877946793</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.9925623333333333</v>
+        <v>0.6246503333333333</v>
       </c>
       <c r="H18">
-        <v>2.977687</v>
+        <v>1.873951</v>
       </c>
       <c r="I18">
-        <v>0.0478190809838148</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="J18">
-        <v>0.04781908098381479</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.866195333333332</v>
+        <v>12.86621566666667</v>
       </c>
       <c r="N18">
-        <v>29.598586</v>
+        <v>38.598647</v>
       </c>
       <c r="O18">
-        <v>0.3628112606599592</v>
+        <v>0.4622366263610143</v>
       </c>
       <c r="P18">
-        <v>0.3628112606599592</v>
+        <v>0.4622366263610142</v>
       </c>
       <c r="Q18">
-        <v>9.792813861175777</v>
+        <v>8.036885904921888</v>
       </c>
       <c r="R18">
-        <v>88.13532475058199</v>
+        <v>72.331973144297</v>
       </c>
       <c r="S18">
-        <v>0.01734930105533853</v>
+        <v>0.01229316956598951</v>
       </c>
       <c r="T18">
-        <v>0.01734930105533853</v>
+        <v>0.01229316956598951</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.9925623333333333</v>
+        <v>0.6246503333333333</v>
       </c>
       <c r="H19">
-        <v>2.977687</v>
+        <v>1.873951</v>
       </c>
       <c r="I19">
-        <v>0.0478190809838148</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="J19">
-        <v>0.04781908098381479</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.306061</v>
+        <v>1.894313</v>
       </c>
       <c r="N19">
-        <v>15.918183</v>
+        <v>5.682938999999999</v>
       </c>
       <c r="O19">
-        <v>0.1951206737256277</v>
+        <v>0.06805581944816448</v>
       </c>
       <c r="P19">
-        <v>0.1951206737256277</v>
+        <v>0.06805581944816448</v>
       </c>
       <c r="Q19">
-        <v>5.266596286969</v>
+        <v>1.183283246887666</v>
       </c>
       <c r="R19">
-        <v>47.39936658272099</v>
+        <v>10.649549221989</v>
       </c>
       <c r="S19">
-        <v>0.009330491298502297</v>
+        <v>0.001809942528819076</v>
       </c>
       <c r="T19">
-        <v>0.009330491298502294</v>
+        <v>0.001809942528819076</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.03741866666666666</v>
+        <v>0.229944</v>
       </c>
       <c r="H20">
-        <v>0.112256</v>
+        <v>0.689832</v>
       </c>
       <c r="I20">
-        <v>0.001802734389114475</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="J20">
-        <v>0.001802734389114475</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.446352</v>
+        <v>3.086228</v>
       </c>
       <c r="N20">
-        <v>4.339055999999999</v>
+        <v>9.258683999999999</v>
       </c>
       <c r="O20">
-        <v>0.05318694539780245</v>
+        <v>0.1108770174431943</v>
       </c>
       <c r="P20">
-        <v>0.05318694539780244</v>
+        <v>0.1108770174431943</v>
       </c>
       <c r="Q20">
-        <v>0.05412056337066665</v>
+        <v>0.7096596112319999</v>
       </c>
       <c r="R20">
-        <v>0.4870850703359999</v>
+        <v>6.386936501087999</v>
       </c>
       <c r="S20">
-        <v>9.588193552057234E-05</v>
+        <v>0.001085490827942015</v>
       </c>
       <c r="T20">
-        <v>9.588193552057232E-05</v>
+        <v>0.001085490827942015</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.03741866666666666</v>
+        <v>0.229944</v>
       </c>
       <c r="H21">
-        <v>0.112256</v>
+        <v>0.689832</v>
       </c>
       <c r="I21">
-        <v>0.001802734389114475</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="J21">
-        <v>0.001802734389114475</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.619945333333333</v>
+        <v>5.619945333333334</v>
       </c>
       <c r="N21">
         <v>16.859836</v>
       </c>
       <c r="O21">
-        <v>0.2066631951161506</v>
+        <v>0.2019043235800461</v>
       </c>
       <c r="P21">
-        <v>0.2066631951161506</v>
+        <v>0.2019043235800461</v>
       </c>
       <c r="Q21">
-        <v>0.2102908611128889</v>
+        <v>1.292272709728</v>
       </c>
       <c r="R21">
-        <v>1.892617750016</v>
+        <v>11.630454387552</v>
       </c>
       <c r="S21">
-        <v>0.0003725588488001594</v>
+        <v>0.001976652118012299</v>
       </c>
       <c r="T21">
-        <v>0.0003725588488001593</v>
+        <v>0.001976652118012299</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>26</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.03741866666666666</v>
+        <v>0.229944</v>
       </c>
       <c r="H22">
-        <v>0.112256</v>
+        <v>0.689832</v>
       </c>
       <c r="I22">
-        <v>0.001802734389114475</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="J22">
-        <v>0.001802734389114475</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.371955333333334</v>
+        <v>3.355234666666667</v>
       </c>
       <c r="N22">
-        <v>7.115866</v>
+        <v>10.065704</v>
       </c>
       <c r="O22">
-        <v>0.08722431247720219</v>
+        <v>0.1205414547019891</v>
       </c>
       <c r="P22">
-        <v>0.08722431247720218</v>
+        <v>0.1205414547019891</v>
       </c>
       <c r="Q22">
-        <v>0.08875540596622222</v>
+        <v>0.771516080192</v>
       </c>
       <c r="R22">
-        <v>0.798798653696</v>
+        <v>6.943644721728</v>
       </c>
       <c r="S22">
-        <v>0.0001572422676695192</v>
+        <v>0.001180106089459285</v>
       </c>
       <c r="T22">
-        <v>0.0001572422676695191</v>
+        <v>0.001180106089459285</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.03741866666666666</v>
+        <v>0.229944</v>
       </c>
       <c r="H23">
-        <v>0.112256</v>
+        <v>0.689832</v>
       </c>
       <c r="I23">
-        <v>0.001802734389114475</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="J23">
-        <v>0.001802734389114475</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.583231666666667</v>
+        <v>1.012758666666667</v>
       </c>
       <c r="N23">
-        <v>7.749695</v>
+        <v>3.038276</v>
       </c>
       <c r="O23">
-        <v>0.09499361262325785</v>
+        <v>0.03638475846559173</v>
       </c>
       <c r="P23">
-        <v>0.09499361262325784</v>
+        <v>0.03638475846559173</v>
       </c>
       <c r="Q23">
-        <v>0.09666108465777777</v>
+        <v>0.232877778848</v>
       </c>
       <c r="R23">
-        <v>0.86994976192</v>
+        <v>2.095900009632</v>
       </c>
       <c r="S23">
-        <v>0.0001712482522221658</v>
+        <v>0.0003562083694352623</v>
       </c>
       <c r="T23">
-        <v>0.0001712482522221658</v>
+        <v>0.0003562083694352623</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.03741866666666666</v>
+        <v>0.229944</v>
       </c>
       <c r="H24">
-        <v>0.112256</v>
+        <v>0.689832</v>
       </c>
       <c r="I24">
-        <v>0.001802734389114475</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="J24">
-        <v>0.001802734389114475</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.866195333333332</v>
+        <v>12.86621566666667</v>
       </c>
       <c r="N24">
-        <v>29.598586</v>
+        <v>38.598647</v>
       </c>
       <c r="O24">
-        <v>0.3628112606599592</v>
+        <v>0.4622366263610143</v>
       </c>
       <c r="P24">
-        <v>0.3628112606599592</v>
+        <v>0.4622366263610142</v>
       </c>
       <c r="Q24">
-        <v>0.3691798744462221</v>
+        <v>2.958509095256</v>
       </c>
       <c r="R24">
-        <v>3.322618870016</v>
+        <v>26.626581857304</v>
       </c>
       <c r="S24">
-        <v>0.0006540523363496841</v>
+        <v>0.004525316696138626</v>
       </c>
       <c r="T24">
-        <v>0.0006540523363496841</v>
+        <v>0.004525316696138626</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>27</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.03741866666666666</v>
+        <v>0.229944</v>
       </c>
       <c r="H25">
-        <v>0.112256</v>
+        <v>0.689832</v>
       </c>
       <c r="I25">
-        <v>0.001802734389114475</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="J25">
-        <v>0.001802734389114475</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.306061</v>
+        <v>1.894313</v>
       </c>
       <c r="N25">
-        <v>15.918183</v>
+        <v>5.682938999999999</v>
       </c>
       <c r="O25">
-        <v>0.1951206737256277</v>
+        <v>0.06805581944816448</v>
       </c>
       <c r="P25">
-        <v>0.1951206737256277</v>
+        <v>0.06805581944816448</v>
       </c>
       <c r="Q25">
-        <v>0.198545727872</v>
+        <v>0.435585908472</v>
       </c>
       <c r="R25">
-        <v>1.786911550848</v>
+        <v>3.920273176248</v>
       </c>
       <c r="S25">
-        <v>0.0003517507485523743</v>
+        <v>0.0006662694352949042</v>
       </c>
       <c r="T25">
-        <v>0.0003517507485523742</v>
+        <v>0.0006662694352949042</v>
       </c>
     </row>
   </sheetData>
